--- a/case3_Borate/Excel_Files/Illovo_waste_water/_borate_PCR642Ca_Illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_borate_PCR642Ca_Illovo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellenbosch-my.sharepoint.com/personal/28830040_sun_ac_za/Documents/Desktop/ADSORPTION DATA-NAWA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/Illovo_waste_water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5E61E327-87C7-4932-9B59-2F3BD09B398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D9A56A6-7109-4094-90BC-A453151ACC3D}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{5E61E327-87C7-4932-9B59-2F3BD09B398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90477451-21F5-45BA-9F8D-F10F060161DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="1536" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -234,8 +234,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -401,7 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,7 +411,8 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,6 +1183,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1189,7 +1191,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2103,29 +2104,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2201,7 +2202,7 @@
         <f t="shared" ref="C2" si="0">B2*$J$5</f>
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="15">
         <f>C2*60</f>
         <v>0</v>
       </c>
@@ -2224,24 +2225,24 @@
         <v>30</v>
       </c>
       <c r="J2" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1">
         <f>I2/J2</f>
-        <v>0.2</v>
-      </c>
-      <c r="L2" s="10">
-        <f>3190.078/1000000</f>
-        <v>3.1900779999999998E-3</v>
+        <v>0.6</v>
+      </c>
+      <c r="L2">
+        <f>L3*1.4</f>
+        <v>4.4661091999999994E-3</v>
       </c>
       <c r="M2" s="9">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="N2" s="11">
         <v>2</v>
       </c>
       <c r="O2" s="11">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P2" s="1">
         <v>60</v>
@@ -2262,21 +2263,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>0.6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="15">
         <f t="shared" ref="D3:D27" si="1">C3*60</f>
         <v>36</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>89.379000000000005</v>
       </c>
       <c r="F3" s="8">
@@ -2287,26 +2288,29 @@
         <f t="shared" ref="G3:G27" si="3">F3*(1/1000)</f>
         <v>8.9378999999999999E-5</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="10">
+        <f>3190.078/1000000</f>
+        <v>3.1900779999999998E-3</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1.27</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="15">
         <f>C4*60</f>
         <v>76.2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>88.917000000000002</v>
       </c>
       <c r="F4" s="8">
@@ -2327,21 +2331,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>1.9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="15">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>88.875</v>
       </c>
       <c r="F5" s="8">
@@ -2363,21 +2367,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="15">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>91.292000000000002</v>
       </c>
       <c r="F6" s="8">
@@ -2388,25 +2392,25 @@
         <f t="shared" si="3"/>
         <v>9.1292000000000006E-5</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>3.23</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="15">
         <f t="shared" si="1"/>
         <v>193.8</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>283.33800000000002</v>
       </c>
       <c r="F7" s="8">
@@ -2418,21 +2422,21 @@
         <v>2.8333800000000006E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>3.9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="15">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>1535.874</v>
       </c>
       <c r="F8" s="8">
@@ -2445,21 +2449,21 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>4.58</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>274.8</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>2497.9569999999999</v>
       </c>
       <c r="F9" s="8">
@@ -2472,21 +2476,21 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>5.27</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="15">
         <f t="shared" si="1"/>
         <v>316.2</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>2871.2649999999999</v>
       </c>
       <c r="F10" s="8">
@@ -2499,21 +2503,21 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>5.93</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="15">
         <f>C11*60</f>
         <v>355.79999999999995</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>4216.0450000000001</v>
       </c>
       <c r="F11" s="8">
@@ -2525,21 +2529,21 @@
         <v>4.2160450000000007E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>6.58</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="15">
         <f t="shared" si="1"/>
         <v>394.8</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>3070.5909999999999</v>
       </c>
       <c r="F12" s="8">
@@ -2552,21 +2556,21 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>7.28</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="15">
         <f t="shared" si="1"/>
         <v>436.8</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>2824.8389999999999</v>
       </c>
       <c r="F13" s="8">
@@ -2579,21 +2583,21 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>7.97</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="15">
         <f t="shared" si="1"/>
         <v>478.2</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>2581.6469999999999</v>
       </c>
       <c r="F14" s="8">
@@ -2606,21 +2610,21 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>8.6300000000000008</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="15">
         <f t="shared" si="1"/>
         <v>517.80000000000007</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>780.51599999999996</v>
       </c>
       <c r="F15" s="8">
@@ -2633,21 +2637,21 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>9.32</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="15">
         <f t="shared" si="1"/>
         <v>559.20000000000005</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>237.78299999999999</v>
       </c>
       <c r="F16" s="8">
@@ -2660,21 +2664,21 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>9.98</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>598.80000000000007</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>151.46799999999999</v>
       </c>
       <c r="F17" s="8">
@@ -2687,21 +2691,21 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>10.63</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="15">
         <f t="shared" si="1"/>
         <v>637.80000000000007</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>122.48699999999999</v>
       </c>
       <c r="F18" s="8">
@@ -2714,21 +2718,21 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>11.32</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="15">
         <f t="shared" si="1"/>
         <v>679.2</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>109.069</v>
       </c>
       <c r="F19" s="8">
@@ -2741,21 +2745,21 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>12.02</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="15">
         <f t="shared" si="1"/>
         <v>721.19999999999993</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>102.408</v>
       </c>
       <c r="F20" s="8">
@@ -2768,21 +2772,21 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>12.72</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="15">
         <f t="shared" si="1"/>
         <v>763.2</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>97.302999999999997</v>
       </c>
       <c r="F21" s="8">
@@ -2795,21 +2799,21 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>13.42</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>805.2</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>95.826999999999998</v>
       </c>
       <c r="F22" s="8">
@@ -2822,21 +2826,21 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>14.07</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="15">
         <f t="shared" si="1"/>
         <v>844.2</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>93.259</v>
       </c>
       <c r="F23" s="8">
@@ -2849,21 +2853,21 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>14.77</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="15">
         <f t="shared" si="1"/>
         <v>886.19999999999993</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>92.191000000000003</v>
       </c>
       <c r="F24" s="8">
@@ -2876,21 +2880,21 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>15.47</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="15">
         <f t="shared" si="1"/>
         <v>928.2</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>91.462000000000003</v>
       </c>
       <c r="F25" s="8">
@@ -2903,21 +2907,21 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>16.18</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="15">
         <f t="shared" si="1"/>
         <v>970.8</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>90.581999999999994</v>
       </c>
       <c r="F26" s="8">
@@ -2930,21 +2934,21 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>16.87</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="16">
         <f t="shared" si="1"/>
         <v>1012.2</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>95.137</v>
       </c>
       <c r="F27" s="8">
@@ -2957,127 +2961,127 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F68" s="7"/>
     </row>
   </sheetData>
@@ -3089,6 +3093,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -3345,16 +3358,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3371,12 +3383,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/case3_Borate/Excel_Files/Illovo_waste_water/_borate_PCR642Ca_Illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_borate_PCR642Ca_Illovo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/Illovo_waste_water/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Desktop\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{5E61E327-87C7-4932-9B59-2F3BD09B398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90477451-21F5-45BA-9F8D-F10F060161DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FFB9A9-24DB-4C19-9E4A-4AE57D8841AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1536" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -413,6 +410,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,7 +2115,7 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -2136,13 +2136,13 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -2202,14 +2202,14 @@
         <f t="shared" ref="C2" si="0">B2*$J$5</f>
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <f>C2*60</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="1">
         <f>E2/1000</f>
         <v>0</v>
       </c>
@@ -2270,17 +2270,17 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.6</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <f t="shared" ref="D3:D27" si="1">C3*60</f>
         <v>36</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>89.379000000000005</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F27" si="2">E3/1000</f>
         <v>8.9379E-2</v>
       </c>
@@ -2303,17 +2303,17 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>1.27</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>C4*60</f>
         <v>76.2</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="16">
         <v>88.917000000000002</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="1">
         <f t="shared" si="2"/>
         <v>8.8916999999999996E-2</v>
       </c>
@@ -2338,17 +2338,17 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>1.9</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>88.875</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="1">
         <f t="shared" si="2"/>
         <v>8.8874999999999996E-2</v>
       </c>
@@ -2374,17 +2374,17 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>91.292000000000002</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="1">
         <f t="shared" si="2"/>
         <v>9.1291999999999998E-2</v>
       </c>
@@ -2403,17 +2403,17 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>3.23</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f t="shared" si="1"/>
         <v>193.8</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>283.33800000000002</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
         <v>0.28333800000000003</v>
       </c>
@@ -2429,17 +2429,17 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>3.9</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>1535.874</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="1">
         <f t="shared" si="2"/>
         <v>1.535874</v>
       </c>
@@ -2456,17 +2456,17 @@
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>4.58</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f t="shared" si="1"/>
         <v>274.8</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>2497.9569999999999</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
         <v>2.497957</v>
       </c>
@@ -2483,17 +2483,17 @@
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>5.27</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f t="shared" si="1"/>
         <v>316.2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>2871.2649999999999</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="1">
         <f t="shared" si="2"/>
         <v>2.8712649999999997</v>
       </c>
@@ -2510,18 +2510,18 @@
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>5.93</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>C11*60</f>
         <v>355.79999999999995</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <v>4216.0450000000001</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="2"/>
+      <c r="F11" s="1">
+        <f>E11/1000</f>
         <v>4.2160450000000003</v>
       </c>
       <c r="G11" s="1">
@@ -2536,17 +2536,17 @@
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>6.58</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f t="shared" si="1"/>
         <v>394.8</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>3070.5909999999999</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="1">
         <f t="shared" si="2"/>
         <v>3.0705909999999998</v>
       </c>
@@ -2563,17 +2563,17 @@
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>7.28</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f t="shared" si="1"/>
         <v>436.8</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="16">
         <v>2824.8389999999999</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
         <v>2.8248389999999999</v>
       </c>
@@ -2590,17 +2590,17 @@
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>7.97</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f t="shared" si="1"/>
         <v>478.2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="16">
         <v>2581.6469999999999</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="1">
         <f t="shared" si="2"/>
         <v>2.5816469999999998</v>
       </c>
@@ -2617,17 +2617,17 @@
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>8.6300000000000008</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f t="shared" si="1"/>
         <v>517.80000000000007</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="16">
         <v>780.51599999999996</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
         <v>0.78051599999999999</v>
       </c>
@@ -2644,17 +2644,17 @@
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>9.32</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f t="shared" si="1"/>
         <v>559.20000000000005</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="16">
         <v>237.78299999999999</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
         <v>0.23778299999999999</v>
       </c>
@@ -2671,17 +2671,17 @@
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>9.98</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f t="shared" si="1"/>
         <v>598.80000000000007</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="16">
         <v>151.46799999999999</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
         <v>0.15146799999999999</v>
       </c>
@@ -2698,17 +2698,17 @@
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>10.63</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f t="shared" si="1"/>
         <v>637.80000000000007</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="16">
         <v>122.48699999999999</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>0.122487</v>
       </c>
@@ -2725,17 +2725,17 @@
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>11.32</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f t="shared" si="1"/>
         <v>679.2</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="16">
         <v>109.069</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>0.109069</v>
       </c>
@@ -2752,17 +2752,17 @@
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>12.02</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f t="shared" si="1"/>
         <v>721.19999999999993</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="16">
         <v>102.408</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="1">
         <f t="shared" si="2"/>
         <v>0.102408</v>
       </c>
@@ -2779,17 +2779,17 @@
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>12.72</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <f t="shared" si="1"/>
         <v>763.2</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="16">
         <v>97.302999999999997</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="1">
         <f t="shared" si="2"/>
         <v>9.7303000000000001E-2</v>
       </c>
@@ -2806,17 +2806,17 @@
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>13.42</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <f t="shared" si="1"/>
         <v>805.2</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="16">
         <v>95.826999999999998</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>9.5826999999999996E-2</v>
       </c>
@@ -2833,17 +2833,17 @@
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>14.07</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <f t="shared" si="1"/>
         <v>844.2</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="16">
         <v>93.259</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>9.3258999999999995E-2</v>
       </c>
@@ -2860,17 +2860,17 @@
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>14.77</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <f t="shared" si="1"/>
         <v>886.19999999999993</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="16">
         <v>92.191000000000003</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="1">
         <f t="shared" si="2"/>
         <v>9.2191000000000009E-2</v>
       </c>
@@ -2887,17 +2887,17 @@
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>15.47</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <f t="shared" si="1"/>
         <v>928.2</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="16">
         <v>91.462000000000003</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>9.1462000000000002E-2</v>
       </c>
@@ -2914,17 +2914,17 @@
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>16.18</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <f t="shared" si="1"/>
         <v>970.8</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="16">
         <v>90.581999999999994</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>9.0581999999999996E-2</v>
       </c>
@@ -2941,17 +2941,17 @@
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>16.87</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <f t="shared" si="1"/>
         <v>1012.2</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="16">
         <v>95.137</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="1">
         <f t="shared" si="2"/>
         <v>9.5136999999999999E-2</v>
       </c>
@@ -3093,15 +3093,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -3358,15 +3349,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3383,4 +3375,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/case3_Borate/Excel_Files/Illovo_waste_water/_borate_PCR642Ca_Illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_borate_PCR642Ca_Illovo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Desktop\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng_Code/case3_Borate/Excel_Files/Illovo_waste_water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FFB9A9-24DB-4C19-9E4A-4AE57D8841AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C6FFB9A9-24DB-4C19-9E4A-4AE57D8841AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD45811-45DC-4C97-8BA9-56CBD9600C59}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,6 +2448,10 @@
         <v>1.535874E-3</v>
       </c>
       <c r="H8" s="2"/>
+      <c r="K8">
+        <f>K2*3.6</f>
+        <v>2.16</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -3093,6 +3097,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -3349,16 +3362,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3375,12 +3387,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>